--- a/public/static/file/importExcel/弱覆盖需求导入模板.xlsx
+++ b/public/static/file/importExcel/弱覆盖需求导入模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengqian/code/ccc/netcellForWeb/public/static/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengqian/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="弱覆盖统计" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
-  <si>
-    <t>记录编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
   <si>
     <t>城市</t>
   </si>
@@ -110,9 +107,6 @@
     <t>上报时间</t>
   </si>
   <si>
-    <t>6b5a4420-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>黔东南</t>
   </si>
   <si>
@@ -152,43 +146,22 @@
     <t>未处理</t>
   </si>
   <si>
-    <t>78cc7f10-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>商业区</t>
   </si>
   <si>
-    <t>7be9ebb0-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>景区</t>
   </si>
   <si>
-    <t>80e89b70-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>党政军</t>
   </si>
   <si>
-    <t>856e2390-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>住宅</t>
   </si>
   <si>
-    <t>8844c330-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>医院</t>
   </si>
   <si>
-    <t>8cb849f0-5753-11e8-b4a5-bd1af6a0bd70</t>
-  </si>
-  <si>
     <t>酒店</t>
-  </si>
-  <si>
-    <t>91722880-5753-11e8-b4a5-bd1af6a0bd70</t>
   </si>
   <si>
     <t>企事业单位</t>
@@ -434,18 +407,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -487,12 +454,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -830,771 +796,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" style="1" customWidth="1"/>
-    <col min="21" max="25" width="10.83203125" style="1"/>
-    <col min="26" max="26" width="16.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="15" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" style="1" customWidth="1"/>
+    <col min="20" max="24" width="10.83203125" style="1"/>
+    <col min="25" max="25" width="16.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4">
+        <v>-140</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="4">
+        <v>12</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>18766765564</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-140</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="4">
+        <v>13</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>18766765565</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-140</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="4">
+        <v>14</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>18766765566</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
         <v>-140</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="5">
-        <v>12</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="P5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="5">
-        <v>18766765564</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="S5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" s="4">
+        <v>15</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>18766765567</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-140</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="4">
+        <v>16</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>18766765568</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-140</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="4">
+        <v>17</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>18766765569</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="4">
         <v>-140</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="5">
-        <v>13</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>18766765565</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>65</v>
+      <c r="P8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="4">
+        <v>18</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>18766765570</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-140</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-140</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W4" s="5">
-        <v>14</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>18766765566</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="5">
-        <v>-140</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" s="5">
-        <v>15</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>18766765567</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="Q9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="5">
-        <v>-140</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="5">
-        <v>16</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>18766765568</v>
-      </c>
-      <c r="AA6" s="5" t="s">
+      <c r="T9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="4">
+        <v>19</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>18766765571</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-140</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" s="5">
-        <v>17</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>18766765569</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-140</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W8" s="5">
-        <v>18</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>18766765570</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-140</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="W9" s="5">
-        <v>19</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>18766765571</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
